--- a/Excel/ItemConfig@cs.xlsx
+++ b/Excel/ItemConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26880" windowHeight="12684"/>
+    <workbookView windowWidth="18288" windowHeight="7944"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -60,6 +60,63 @@
   </si>
   <si>
     <t>做题需要的积分</t>
+  </si>
+  <si>
+    <t>UIGames/UIChess/DiscreteImages/coin 64.png</t>
+  </si>
+  <si>
+    <t>火射手碎片</t>
+  </si>
+  <si>
+    <t>用来合成英雄火射手</t>
+  </si>
+  <si>
+    <t>火骑士碎片</t>
+  </si>
+  <si>
+    <t>用来合成英雄火骑士</t>
+  </si>
+  <si>
+    <t>火法师碎片</t>
+  </si>
+  <si>
+    <t>用来合成英雄火法师</t>
+  </si>
+  <si>
+    <t>霜射手碎片</t>
+  </si>
+  <si>
+    <t>用来合成英雄霜射手</t>
+  </si>
+  <si>
+    <t>霜骑士碎片</t>
+  </si>
+  <si>
+    <t>用来合成英雄霜骑士</t>
+  </si>
+  <si>
+    <t>霜法师碎片</t>
+  </si>
+  <si>
+    <t>用来合成英雄霜法师</t>
+  </si>
+  <si>
+    <t>草射手碎片</t>
+  </si>
+  <si>
+    <t>用来合成英雄草射手</t>
+  </si>
+  <si>
+    <t>草骑士碎片</t>
+  </si>
+  <si>
+    <t>用来合成英雄草骑士</t>
+  </si>
+  <si>
+    <t>草法师碎片</t>
+  </si>
+  <si>
+    <t>用来合成英雄草法师</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +1117,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:K13"/>
+  <dimension ref="C3:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K13" sqref="H13:K19"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1149,6 +1206,9 @@
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
@@ -1156,6 +1216,12 @@
       <c r="C7" s="1">
         <v>1001</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
@@ -1163,22 +1229,95 @@
       <c r="C8" s="1">
         <v>1002</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="11:11">
+    <row r="9" spans="3:11">
+      <c r="C9" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="11:11">
+    <row r="10" spans="3:11">
+      <c r="C10" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="11:11">
+    <row r="11" spans="3:11">
+      <c r="C11" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="11:11">
+    <row r="12" spans="3:11">
+      <c r="C12" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="11:11">
+    <row r="13" spans="3:11">
+      <c r="C13" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="1">
+        <v>1009</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ItemConfig@cs.xlsx
+++ b/Excel/ItemConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="7944"/>
+    <workbookView windowWidth="23100" windowHeight="7727"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -71,16 +71,25 @@
     <t>用来合成英雄火射手</t>
   </si>
   <si>
+    <t>UIGames/UIChess/DiscreteImages/ICON_FantasyWarrior_Inventory_Arrows02_Clean.png</t>
+  </si>
+  <si>
     <t>火骑士碎片</t>
   </si>
   <si>
     <t>用来合成英雄火骑士</t>
   </si>
   <si>
+    <t>UIGames/UIChess/DiscreteImages/ICON_FantasyWarrior_Inventory_Daggers01_Clean.png</t>
+  </si>
+  <si>
     <t>火法师碎片</t>
   </si>
   <si>
     <t>用来合成英雄火法师</t>
+  </si>
+  <si>
+    <t>UIGames/UIChess/DiscreteImages/ICON_FantasyWarrior_Inventory_Scepters01_Clean.png</t>
   </si>
   <si>
     <t>霜射手碎片</t>
@@ -1120,7 +1129,7 @@
   <dimension ref="C3:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1222,6 +1231,9 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
@@ -1230,10 +1242,13 @@
         <v>1002</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="K8" s="6"/>
     </row>
@@ -1242,10 +1257,13 @@
         <v>1003</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K9" s="6"/>
     </row>
@@ -1254,10 +1272,13 @@
         <v>1004</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="K10" s="6"/>
     </row>
@@ -1266,10 +1287,13 @@
         <v>1005</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="K11" s="6"/>
     </row>
@@ -1278,10 +1302,13 @@
         <v>1006</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="K12" s="6"/>
     </row>
@@ -1290,33 +1317,42 @@
         <v>1007</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:6">
       <c r="C14" s="1">
         <v>1008</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
+    <row r="15" spans="3:6">
       <c r="C15" s="1">
         <v>1009</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
